--- a/Result_9010.xlsx
+++ b/Result_9010.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB\Documents\GitHub\S-shaped-Binary-Whale-Optimization-Algorithm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB\Videos\S-shaped-Binary-Whale-Optimization-Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C949AEBB-79D2-4406-BF44-917F70B38C3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B699EF7-8B98-436E-9D9D-3D8FFCEB502B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,86 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+  <si>
+    <t>Breastcancer</t>
+  </si>
+  <si>
+    <t>BreastEW</t>
+  </si>
+  <si>
+    <t>Congress</t>
+  </si>
+  <si>
+    <t>Exactly</t>
+  </si>
+  <si>
+    <t>Exactly2</t>
+  </si>
+  <si>
+    <t>HeartEW</t>
+  </si>
+  <si>
+    <t>Ionosphere</t>
+  </si>
+  <si>
+    <t>KrVsKpEW</t>
+  </si>
+  <si>
+    <t>Lymphography</t>
+  </si>
+  <si>
+    <t>M-of-n</t>
+  </si>
+  <si>
+    <t>PenglungEW</t>
+  </si>
+  <si>
+    <t>Sonar</t>
+  </si>
+  <si>
+    <t>SpectEW</t>
+  </si>
+  <si>
+    <t>Tic-tac-toe</t>
+  </si>
+  <si>
+    <t>Vote</t>
+  </si>
+  <si>
+    <t>WaveformEW</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t>Zoo</t>
+  </si>
+  <si>
+    <t>avg acc</t>
+  </si>
+  <si>
+    <t>% selected</t>
+  </si>
+  <si>
+    <t>avg time</t>
+  </si>
+  <si>
+    <t>avg loss</t>
+  </si>
+  <si>
+    <t>worst loss</t>
+  </si>
+  <si>
+    <t>best loss</t>
+  </si>
+  <si>
+    <t>std loss</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,14 +425,484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>0.96959834368529996</v>
+      </c>
+      <c r="C2">
+        <v>0.94779761904761906</v>
+      </c>
+      <c r="D2">
+        <v>0.95863372093023203</v>
+      </c>
+      <c r="E2">
+        <v>0.96775</v>
+      </c>
+      <c r="F2">
+        <v>0.73704999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.82648148148148104</v>
+      </c>
+      <c r="H2">
+        <v>0.87947619047618997</v>
+      </c>
+      <c r="I2">
+        <v>0.96925915948275798</v>
+      </c>
+      <c r="J2">
+        <v>0.851404761904762</v>
+      </c>
+      <c r="K2">
+        <v>0.99584999999999901</v>
+      </c>
+      <c r="L2">
+        <v>0.87883928571428505</v>
+      </c>
+      <c r="M2">
+        <v>0.84198809523809504</v>
+      </c>
+      <c r="N2">
+        <v>0.80690170940170902</v>
+      </c>
+      <c r="O2">
+        <v>0.84116831140350801</v>
+      </c>
+      <c r="P2">
+        <v>0.94849999999999901</v>
+      </c>
+      <c r="Q2">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="R2">
+        <v>0.95066993464052196</v>
+      </c>
+      <c r="S2">
+        <v>0.95518181818181802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="C3">
+        <v>0.44166666666666599</v>
+      </c>
+      <c r="D3">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.54999999999999905</v>
+      </c>
+      <c r="F3">
+        <v>0.45</v>
+      </c>
+      <c r="G3">
+        <v>0.488461538461538</v>
+      </c>
+      <c r="H3">
+        <v>0.35882352941176399</v>
+      </c>
+      <c r="I3">
+        <v>0.68611111111111101</v>
+      </c>
+      <c r="J3">
+        <v>0.57222222222222197</v>
+      </c>
+      <c r="K3">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="L3">
+        <v>0.54523076923076896</v>
+      </c>
+      <c r="M3">
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="N3">
+        <v>0.56590909090909003</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0.38437500000000002</v>
+      </c>
+      <c r="Q3">
+        <v>0.7</v>
+      </c>
+      <c r="R3">
+        <v>0.65384615384615397</v>
+      </c>
+      <c r="S3">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>30.3697674751281</v>
+      </c>
+      <c r="C4">
+        <v>31.5123981237411</v>
+      </c>
+      <c r="D4">
+        <v>23.329291808605099</v>
+      </c>
+      <c r="E4">
+        <v>45.281010723114001</v>
+      </c>
+      <c r="F4">
+        <v>44.2462605118751</v>
+      </c>
+      <c r="G4">
+        <v>18.1891501307487</v>
+      </c>
+      <c r="H4">
+        <v>24.694112777709901</v>
+      </c>
+      <c r="I4">
+        <v>323.41362437009798</v>
+      </c>
+      <c r="J4">
+        <v>14.3725936770439</v>
+      </c>
+      <c r="K4">
+        <v>45.308014023303897</v>
+      </c>
+      <c r="L4">
+        <v>17.241686022281598</v>
+      </c>
+      <c r="M4">
+        <v>20.006736326217599</v>
+      </c>
+      <c r="N4">
+        <v>18.742830860614699</v>
+      </c>
+      <c r="O4">
+        <v>38.744625782966601</v>
+      </c>
+      <c r="P4">
+        <v>19.840178334712899</v>
+      </c>
+      <c r="Q4">
+        <v>858.85526751279804</v>
+      </c>
+      <c r="R4">
+        <v>15.336163401603599</v>
+      </c>
+      <c r="S4">
+        <v>12.5869285583496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>3.1549637681159301E-2</v>
+      </c>
+      <c r="C5">
+        <v>5.2350407268170397E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.01127906976744E-2</v>
+      </c>
+      <c r="E5">
+        <v>3.322E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.24843599999999899</v>
+      </c>
+      <c r="G5">
+        <v>0.16566794871794799</v>
+      </c>
+      <c r="H5">
+        <v>0.11891930672268899</v>
+      </c>
+      <c r="I5">
+        <v>3.5853815852490402E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.13765150793650699</v>
+      </c>
+      <c r="K5">
+        <v>7.8101153846153702E-3</v>
+      </c>
+      <c r="L5">
+        <v>0.10454070054945</v>
+      </c>
+      <c r="M5">
+        <v>0.14366571428571401</v>
+      </c>
+      <c r="N5">
+        <v>0.165003962703962</v>
+      </c>
+      <c r="O5">
+        <v>0.160672138157894</v>
+      </c>
+      <c r="P5">
+        <v>4.8558749999999998E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0.1775572</v>
+      </c>
+      <c r="R5">
+        <v>4.6510520361990999E-2</v>
+      </c>
+      <c r="S5">
+        <v>4.9232499999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>3.2972739820565998E-2</v>
+      </c>
+      <c r="C6">
+        <v>5.4422305764411101E-2</v>
+      </c>
+      <c r="D6">
+        <v>4.4877906976744097E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.102183846153846</v>
+      </c>
+      <c r="F6">
+        <v>0.25453692307692299</v>
+      </c>
+      <c r="G6">
+        <v>0.17771794871794799</v>
+      </c>
+      <c r="H6">
+        <v>0.12775084033613399</v>
+      </c>
+      <c r="I6">
+        <v>4.0359291187739399E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.16545396825396799</v>
+      </c>
+      <c r="K6">
+        <v>1.9023846153845999E-2</v>
+      </c>
+      <c r="L6">
+        <v>0.115791758241758</v>
+      </c>
+      <c r="M6">
+        <v>0.153557142857142</v>
+      </c>
+      <c r="N6">
+        <v>0.17424708624708601</v>
+      </c>
+      <c r="O6">
+        <v>0.16393848684210499</v>
+      </c>
+      <c r="P6">
+        <v>5.3874999999999999E-2</v>
+      </c>
+      <c r="Q6">
+        <v>0.18406399999999901</v>
+      </c>
+      <c r="R6">
+        <v>5.2662895927601802E-2</v>
+      </c>
+      <c r="S6">
+        <v>5.5125E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>2.9053554175293098E-2</v>
+      </c>
+      <c r="C7">
+        <v>4.7785401002506098E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.3886627906976698E-2</v>
+      </c>
+      <c r="E7">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.241118461538461</v>
+      </c>
+      <c r="G7">
+        <v>0.148384615384615</v>
+      </c>
+      <c r="H7">
+        <v>0.106969747899159</v>
+      </c>
+      <c r="I7">
+        <v>2.96201388888888E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.112569841269841</v>
+      </c>
+      <c r="K7">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L7">
+        <v>9.4960714285714107E-2</v>
+      </c>
+      <c r="M7">
+        <v>0.13296428571428501</v>
+      </c>
+      <c r="N7">
+        <v>0.156085081585081</v>
+      </c>
+      <c r="O7">
+        <v>0.15772927631578901</v>
+      </c>
+      <c r="P7">
+        <v>4.2724999999999999E-2</v>
+      </c>
+      <c r="Q7">
+        <v>0.17271600000000001</v>
+      </c>
+      <c r="R7">
+        <v>4.0692307692307798E-2</v>
+      </c>
+      <c r="S7">
+        <v>4.3074999999999898E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>8.4745729720748196E-4</v>
+      </c>
+      <c r="C8">
+        <v>1.75855962076148E-3</v>
+      </c>
+      <c r="D8">
+        <v>2.47927329518171E-3</v>
+      </c>
+      <c r="E8">
+        <v>3.4686822937579E-2</v>
+      </c>
+      <c r="F8">
+        <v>4.57076123423169E-3</v>
+      </c>
+      <c r="G8">
+        <v>7.8118887926592702E-3</v>
+      </c>
+      <c r="H8">
+        <v>6.2469108649603399E-3</v>
+      </c>
+      <c r="I8">
+        <v>2.57766424667852E-3</v>
+      </c>
+      <c r="J8">
+        <v>1.4458406355992401E-2</v>
+      </c>
+      <c r="K8">
+        <v>4.5955754980506799E-3</v>
+      </c>
+      <c r="L8">
+        <v>6.73308264026378E-3</v>
+      </c>
+      <c r="M8">
+        <v>5.6325135961159496E-3</v>
+      </c>
+      <c r="N8">
+        <v>4.2685860739994303E-3</v>
+      </c>
+      <c r="O8">
+        <v>1.7090297542896699E-3</v>
+      </c>
+      <c r="P8">
+        <v>3.6741689111280599E-3</v>
+      </c>
+      <c r="Q8">
+        <v>2.62483046309659E-3</v>
+      </c>
+      <c r="R8">
+        <v>3.0949683182866202E-3</v>
+      </c>
+      <c r="S8">
+        <v>5.09941234359411E-3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -361,14 +911,1251 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237B724B-912A-44DA-A2F3-1699F5A8E7B8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection sqref="A1:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.0426846100758902E-2</v>
+      </c>
+      <c r="C2">
+        <v>5.3786654135338299E-2</v>
+      </c>
+      <c r="D2">
+        <v>3.3886627906976698E-2</v>
+      </c>
+      <c r="E2">
+        <v>1.03346153846154E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.241118461538461</v>
+      </c>
+      <c r="G2">
+        <v>0.170384615384615</v>
+      </c>
+      <c r="H2">
+        <v>0.12238781512605</v>
+      </c>
+      <c r="I2">
+        <v>3.6245534003831403E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.132925396825396</v>
+      </c>
+      <c r="K2">
+        <v>5.3846153846153801E-3</v>
+      </c>
+      <c r="L2">
+        <v>0.11216373626373601</v>
+      </c>
+      <c r="M2">
+        <v>0.14360000000000001</v>
+      </c>
+      <c r="N2">
+        <v>0.17040792540792499</v>
+      </c>
+      <c r="O2">
+        <v>0.16290723684210501</v>
+      </c>
+      <c r="P2">
+        <v>4.6649999999999997E-2</v>
+      </c>
+      <c r="Q2">
+        <v>0.17757199999999901</v>
+      </c>
+      <c r="R2">
+        <v>4.1785067873303203E-2</v>
+      </c>
+      <c r="S2">
+        <v>4.335E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.1397860593512697E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.1987781954887201E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.0688953488372002E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.25156692307692302</v>
+      </c>
+      <c r="G3">
+        <v>0.148384615384615</v>
+      </c>
+      <c r="H3">
+        <v>0.118950840336134</v>
+      </c>
+      <c r="I3">
+        <v>3.7026149425287501E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.16203650793650801</v>
+      </c>
+      <c r="K3">
+        <v>7.36461538461538E-3</v>
+      </c>
+      <c r="L3">
+        <v>0.105646153846153</v>
+      </c>
+      <c r="M3">
+        <v>0.13934523809523799</v>
+      </c>
+      <c r="N3">
+        <v>0.17424708624708601</v>
+      </c>
+      <c r="O3">
+        <v>0.16194111842105199</v>
+      </c>
+      <c r="P3">
+        <v>4.335E-2</v>
+      </c>
+      <c r="Q3">
+        <v>0.180448</v>
+      </c>
+      <c r="R3">
+        <v>4.4653846153846197E-2</v>
+      </c>
+      <c r="S3">
+        <v>4.4324999999999899E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.2185300207039198E-2</v>
+      </c>
+      <c r="C4">
+        <v>5.4422305764411101E-2</v>
+      </c>
+      <c r="D4">
+        <v>3.8386627906976702E-2</v>
+      </c>
+      <c r="E4">
+        <v>8.9313846153846105E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.24991461538461501</v>
+      </c>
+      <c r="G4">
+        <v>0.17328205128205099</v>
+      </c>
+      <c r="H4">
+        <v>0.12775084033613399</v>
+      </c>
+      <c r="I4">
+        <v>3.7793378831417701E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.124742857142857</v>
+      </c>
+      <c r="K4">
+        <v>6.3746153846153796E-3</v>
+      </c>
+      <c r="L4">
+        <v>0.10976373626373601</v>
+      </c>
+      <c r="M4">
+        <v>0.149147619047619</v>
+      </c>
+      <c r="N4">
+        <v>0.169389277389277</v>
+      </c>
+      <c r="O4">
+        <v>0.16191940789473599</v>
+      </c>
+      <c r="P4">
+        <v>5.0574999999999898E-2</v>
+      </c>
+      <c r="Q4">
+        <v>0.178228</v>
+      </c>
+      <c r="R4">
+        <v>4.7608597285067902E-2</v>
+      </c>
+      <c r="S4">
+        <v>4.3975E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.2447481021393797E-2</v>
+      </c>
+      <c r="C5">
+        <v>4.7785401002506098E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.2418604651162803E-2</v>
+      </c>
+      <c r="E5">
+        <v>8.1393846153846094E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.251453076923076</v>
+      </c>
+      <c r="G5">
+        <v>0.15494871794871701</v>
+      </c>
+      <c r="H5">
+        <v>0.112431512605042</v>
+      </c>
+      <c r="I5">
+        <v>3.6714834770115001E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.112569841269841</v>
+      </c>
+      <c r="K5">
+        <v>5.3846153846153801E-3</v>
+      </c>
+      <c r="L5">
+        <v>9.4960714285714107E-2</v>
+      </c>
+      <c r="M5">
+        <v>0.13363095238095199</v>
+      </c>
+      <c r="N5">
+        <v>0.16686596736596701</v>
+      </c>
+      <c r="O5">
+        <v>0.159856907894736</v>
+      </c>
+      <c r="P5">
+        <v>5.3249999999999999E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0.17643600000000001</v>
+      </c>
+      <c r="R5">
+        <v>4.57466063348414E-2</v>
+      </c>
+      <c r="S5">
+        <v>5.2975000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2.9053554175293098E-2</v>
+      </c>
+      <c r="C6">
+        <v>5.1964912280701603E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.7918604651162702E-2</v>
+      </c>
+      <c r="E6">
+        <v>8.2383846153846099E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.24771384615384601</v>
+      </c>
+      <c r="G6">
+        <v>0.16151282051282001</v>
+      </c>
+      <c r="H6">
+        <v>0.116730672268907</v>
+      </c>
+      <c r="I6">
+        <v>3.6337416187739398E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.125853968253968</v>
+      </c>
+      <c r="K6">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L6">
+        <v>0.110440659340659</v>
+      </c>
+      <c r="M6">
+        <v>0.147469047619047</v>
+      </c>
+      <c r="N6">
+        <v>0.160206293706293</v>
+      </c>
+      <c r="O6">
+        <v>0.161886842105263</v>
+      </c>
+      <c r="P6">
+        <v>4.6649999999999997E-2</v>
+      </c>
+      <c r="Q6">
+        <v>0.17727000000000001</v>
+      </c>
+      <c r="R6">
+        <v>5.0477375565610903E-2</v>
+      </c>
+      <c r="S6">
+        <v>5.4849999999999899E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3.1639544513457303E-2</v>
+      </c>
+      <c r="C7">
+        <v>5.0925751879699201E-2</v>
+      </c>
+      <c r="D7">
+        <v>4.1366279069767399E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.102183846153846</v>
+      </c>
+      <c r="F7">
+        <v>0.250904615384615</v>
+      </c>
+      <c r="G7">
+        <v>0.16671794871794801</v>
+      </c>
+      <c r="H7">
+        <v>0.120147478991596</v>
+      </c>
+      <c r="I7">
+        <v>2.96201388888888E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.14493015873015799</v>
+      </c>
+      <c r="K7">
+        <v>1.9023846153845999E-2</v>
+      </c>
+      <c r="L7">
+        <v>0.11153159340659299</v>
+      </c>
+      <c r="M7">
+        <v>0.14750952380952301</v>
+      </c>
+      <c r="N7">
+        <v>0.16160139860139799</v>
+      </c>
+      <c r="O7">
+        <v>0.16194111842105199</v>
+      </c>
+      <c r="P7">
+        <v>5.3874999999999999E-2</v>
+      </c>
+      <c r="Q7">
+        <v>0.18406399999999901</v>
+      </c>
+      <c r="R7">
+        <v>4.0692307692307798E-2</v>
+      </c>
+      <c r="S7">
+        <v>4.4600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3.2185300207039198E-2</v>
+      </c>
+      <c r="C8">
+        <v>5.26315789473683E-2</v>
+      </c>
+      <c r="D8">
+        <v>4.1418604651162802E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.33046153846153E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.25365384615384601</v>
+      </c>
+      <c r="G8">
+        <v>0.176948717948717</v>
+      </c>
+      <c r="H8">
+        <v>0.12126974789915899</v>
+      </c>
+      <c r="I8">
+        <v>3.4005076628352303E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.15178253968253899</v>
+      </c>
+      <c r="K8">
+        <v>5.3846153846153801E-3</v>
+      </c>
+      <c r="L8">
+        <v>9.7942582417582399E-2</v>
+      </c>
+      <c r="M8">
+        <v>0.153557142857142</v>
+      </c>
+      <c r="N8">
+        <v>0.16677272727272699</v>
+      </c>
+      <c r="O8">
+        <v>0.161908552631578</v>
+      </c>
+      <c r="P8">
+        <v>4.6649999999999997E-2</v>
+      </c>
+      <c r="Q8">
+        <v>0.17891599999999999</v>
+      </c>
+      <c r="R8">
+        <v>5.03552036199095E-2</v>
+      </c>
+      <c r="S8">
+        <v>5.2699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3.1315873015872797E-2</v>
+      </c>
+      <c r="C9">
+        <v>5.2298245614034997E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.8970930232558099E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.2314615384615301E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.241118461538461</v>
+      </c>
+      <c r="G9">
+        <v>0.16748717948717901</v>
+      </c>
+      <c r="H9">
+        <v>0.11745588235294099</v>
+      </c>
+      <c r="I9">
+        <v>3.3863386015325798E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.13691587301587299</v>
+      </c>
+      <c r="K9">
+        <v>7.36461538461538E-3</v>
+      </c>
+      <c r="L9">
+        <v>0.100571978021978</v>
+      </c>
+      <c r="M9">
+        <v>0.13865</v>
+      </c>
+      <c r="N9">
+        <v>0.16540909090909001</v>
+      </c>
+      <c r="O9">
+        <v>0.159878618421052</v>
+      </c>
+      <c r="P9">
+        <v>5.1199999999999898E-2</v>
+      </c>
+      <c r="Q9">
+        <v>0.17920800000000001</v>
+      </c>
+      <c r="R9">
+        <v>4.4653846153846197E-2</v>
+      </c>
+      <c r="S9">
+        <v>5.5125E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3.1861628709454699E-2</v>
+      </c>
+      <c r="C10">
+        <v>5.3693609022556502E-2</v>
+      </c>
+      <c r="D10">
+        <v>3.6813953488371999E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.62746153846152E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.24375384615384599</v>
+      </c>
+      <c r="G10">
+        <v>0.15938461538461501</v>
+      </c>
+      <c r="H10">
+        <v>0.12134831932773101</v>
+      </c>
+      <c r="I10">
+        <v>3.3898862547892601E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.118698412698412</v>
+      </c>
+      <c r="K10">
+        <v>5.3846153846153801E-3</v>
+      </c>
+      <c r="L10">
+        <v>0.100233516483516</v>
+      </c>
+      <c r="M10">
+        <v>0.14660714285714299</v>
+      </c>
+      <c r="N10">
+        <v>0.16666200466200401</v>
+      </c>
+      <c r="O10">
+        <v>0.159846052631578</v>
+      </c>
+      <c r="P10">
+        <v>4.2724999999999999E-2</v>
+      </c>
+      <c r="Q10">
+        <v>0.176592</v>
+      </c>
+      <c r="R10">
+        <v>4.9262443438913998E-2</v>
+      </c>
+      <c r="S10">
+        <v>4.4324999999999899E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3.2185300207039198E-2</v>
+      </c>
+      <c r="C11">
+        <v>5.2281954887217999E-2</v>
+      </c>
+      <c r="D11">
+        <v>4.0741279069767301E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.5284615384615299E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.25453692307692299</v>
+      </c>
+      <c r="G11">
+        <v>0.17771794871794799</v>
+      </c>
+      <c r="H11">
+        <v>0.106969747899159</v>
+      </c>
+      <c r="I11">
+        <v>3.4917899904214497E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.138885714285714</v>
+      </c>
+      <c r="K11">
+        <v>1.9023846153845999E-2</v>
+      </c>
+      <c r="L11">
+        <v>0.115791758241758</v>
+      </c>
+      <c r="M11">
+        <v>0.145364285714285</v>
+      </c>
+      <c r="N11">
+        <v>0.16614568764568699</v>
+      </c>
+      <c r="O11">
+        <v>0.16191940789473599</v>
+      </c>
+      <c r="P11">
+        <v>4.2724999999999999E-2</v>
+      </c>
+      <c r="Q11">
+        <v>0.173872</v>
+      </c>
+      <c r="R11">
+        <v>4.7285067873303201E-2</v>
+      </c>
+      <c r="S11">
+        <v>5.5125E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3.1882125603864601E-2</v>
+      </c>
+      <c r="C12">
+        <v>4.7948621553884602E-2</v>
+      </c>
+      <c r="D12">
+        <v>4.1741279069767399E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.03346153846154E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.24980769230769201</v>
+      </c>
+      <c r="G12">
+        <v>0.169615384615384</v>
+      </c>
+      <c r="H12">
+        <v>0.12215210084033599</v>
+      </c>
+      <c r="I12">
+        <v>3.4479226532566798E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.119725396825396</v>
+      </c>
+      <c r="K12">
+        <v>1.33046153846153E-2</v>
+      </c>
+      <c r="L12">
+        <v>0.11219450549450501</v>
+      </c>
+      <c r="M12">
+        <v>0.13296428571428501</v>
+      </c>
+      <c r="N12">
+        <v>0.16848018648018601</v>
+      </c>
+      <c r="O12">
+        <v>0.16086644736842101</v>
+      </c>
+      <c r="P12">
+        <v>4.8524999999999999E-2</v>
+      </c>
+      <c r="Q12">
+        <v>0.177342</v>
+      </c>
+      <c r="R12">
+        <v>4.5746606334841698E-2</v>
+      </c>
+      <c r="S12">
+        <v>4.3975E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3.18411318150447E-2</v>
+      </c>
+      <c r="C13">
+        <v>5.16544486215538E-2</v>
+      </c>
+      <c r="D13">
+        <v>4.40436046511627E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.03346153846154E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.24859692307692299</v>
+      </c>
+      <c r="G13">
+        <v>0.16884615384615301</v>
+      </c>
+      <c r="H13">
+        <v>0.127039495798319</v>
+      </c>
+      <c r="I13">
+        <v>3.8544336685823598E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.15486349206349201</v>
+      </c>
+      <c r="K13">
+        <v>5.3846153846153801E-3</v>
+      </c>
+      <c r="L13">
+        <v>0.110672802197802</v>
+      </c>
+      <c r="M13">
+        <v>0.14760714285714299</v>
+      </c>
+      <c r="N13">
+        <v>0.159924242424242</v>
+      </c>
+      <c r="O13">
+        <v>0.15782697368421</v>
+      </c>
+      <c r="P13">
+        <v>4.6649999999999997E-2</v>
+      </c>
+      <c r="Q13">
+        <v>0.179448</v>
+      </c>
+      <c r="R13">
+        <v>4.7285067873303201E-2</v>
+      </c>
+      <c r="S13">
+        <v>5.4224999999999898E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3.2144306418219297E-2</v>
+      </c>
+      <c r="C14">
+        <v>5.3097117794486302E-2</v>
+      </c>
+      <c r="D14">
+        <v>4.2834302325581303E-2</v>
+      </c>
+      <c r="E14">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F14">
+        <v>0.24749307692307601</v>
+      </c>
+      <c r="G14">
+        <v>0.169615384615384</v>
+      </c>
+      <c r="H14">
+        <v>0.120598739495798</v>
+      </c>
+      <c r="I14">
+        <v>3.8662966954023097E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.153196825396825</v>
+      </c>
+      <c r="K14">
+        <v>5.3846153846153801E-3</v>
+      </c>
+      <c r="L14">
+        <v>0.111165109890109</v>
+      </c>
+      <c r="M14">
+        <v>0.151183333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.156085081585081</v>
+      </c>
+      <c r="O14">
+        <v>0.16090986842105201</v>
+      </c>
+      <c r="P14">
+        <v>4.6649999999999997E-2</v>
+      </c>
+      <c r="Q14">
+        <v>0.179646</v>
+      </c>
+      <c r="R14">
+        <v>4.4653846153846197E-2</v>
+      </c>
+      <c r="S14">
+        <v>5.45E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3.2972739820565998E-2</v>
+      </c>
+      <c r="C15">
+        <v>5.2422305764410898E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.95436046511628E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.62746153846152E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.244964615384615</v>
+      </c>
+      <c r="G15">
+        <v>0.170384615384615</v>
+      </c>
+      <c r="H15">
+        <v>0.11003403361344501</v>
+      </c>
+      <c r="I15">
+        <v>3.4515672892720201E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.119253968253968</v>
+      </c>
+      <c r="K15">
+        <v>5.3846153846153801E-3</v>
+      </c>
+      <c r="L15">
+        <v>9.8681043956043907E-2</v>
+      </c>
+      <c r="M15">
+        <v>0.14948095238095199</v>
+      </c>
+      <c r="N15">
+        <v>0.16128787878787801</v>
+      </c>
+      <c r="O15">
+        <v>0.159878618421052</v>
+      </c>
+      <c r="P15">
+        <v>4.8699999999999903E-2</v>
+      </c>
+      <c r="Q15">
+        <v>0.176842</v>
+      </c>
+      <c r="R15">
+        <v>4.63936651583709E-2</v>
+      </c>
+      <c r="S15">
+        <v>5.4849999999999899E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3.2144306418219297E-2</v>
+      </c>
+      <c r="C16">
+        <v>5.30579573934837E-2</v>
+      </c>
+      <c r="D16">
+        <v>3.8543604651162702E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.1324615384615299E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.241118461538461</v>
+      </c>
+      <c r="G16">
+        <v>0.169615384615384</v>
+      </c>
+      <c r="H16">
+        <v>0.109955462184873</v>
+      </c>
+      <c r="I16">
+        <v>3.8162068965517097E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.13960952380952299</v>
+      </c>
+      <c r="K16">
+        <v>5.3846153846153801E-3</v>
+      </c>
+      <c r="L16">
+        <v>9.7528571428571395E-2</v>
+      </c>
+      <c r="M16">
+        <v>0.147342857142857</v>
+      </c>
+      <c r="N16">
+        <v>0.16185198135198101</v>
+      </c>
+      <c r="O16">
+        <v>0.15779440789473601</v>
+      </c>
+      <c r="P16">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Q16">
+        <v>0.176842</v>
+      </c>
+      <c r="R16">
+        <v>5.2662895927601802E-2</v>
+      </c>
+      <c r="S16">
+        <v>5.4224999999999898E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3.1094685990337999E-2</v>
+      </c>
+      <c r="C17">
+        <v>5.2755639097744202E-2</v>
+      </c>
+      <c r="D17">
+        <v>3.8491279069767403E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.2314615384615301E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.25442307692307597</v>
+      </c>
+      <c r="G17">
+        <v>0.16517948717948699</v>
+      </c>
+      <c r="H17">
+        <v>0.12513781512604999</v>
+      </c>
+      <c r="I17">
+        <v>3.7775167624521197E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.13245396825396799</v>
+      </c>
+      <c r="K17">
+        <v>5.3846153846153801E-3</v>
+      </c>
+      <c r="L17">
+        <v>9.7343956043955904E-2</v>
+      </c>
+      <c r="M17">
+        <v>0.13944285714285701</v>
+      </c>
+      <c r="N17">
+        <v>0.16771212121212101</v>
+      </c>
+      <c r="O17">
+        <v>0.15878223684210499</v>
+      </c>
+      <c r="P17">
+        <v>5.3874999999999999E-2</v>
+      </c>
+      <c r="Q17">
+        <v>0.18060399999999899</v>
+      </c>
+      <c r="R17">
+        <v>4.7400452488687801E-2</v>
+      </c>
+      <c r="S17">
+        <v>4.4324999999999899E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3.0771014492753501E-2</v>
+      </c>
+      <c r="C18">
+        <v>5.3825814536340798E-2</v>
+      </c>
+      <c r="D18">
+        <v>4.4877906976744097E-2</v>
+      </c>
+      <c r="E18">
+        <v>7.74338461538462E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.25343307692307598</v>
+      </c>
+      <c r="G18">
+        <v>0.16671794871794801</v>
+      </c>
+      <c r="H18">
+        <v>0.126848319327731</v>
+      </c>
+      <c r="I18">
+        <v>4.0359291187739399E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.13896984126984099</v>
+      </c>
+      <c r="K18">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L18">
+        <v>9.8636263736263705E-2</v>
+      </c>
+      <c r="M18">
+        <v>0.13824761904761801</v>
+      </c>
+      <c r="N18">
+        <v>0.16739860139860099</v>
+      </c>
+      <c r="O18">
+        <v>0.15772927631578901</v>
+      </c>
+      <c r="P18">
+        <v>5.3249999999999999E-2</v>
+      </c>
+      <c r="Q18">
+        <v>0.17405999999999899</v>
+      </c>
+      <c r="R18">
+        <v>4.8615384615384602E-2</v>
+      </c>
+      <c r="S18">
+        <v>4.4324999999999899E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3.0730020703933599E-2</v>
+      </c>
+      <c r="C19">
+        <v>5.4391290726816997E-2</v>
+      </c>
+      <c r="D19">
+        <v>3.9023255813953502E-2</v>
+      </c>
+      <c r="E19">
+        <v>9.3446153846152707E-3</v>
+      </c>
+      <c r="F19">
+        <v>0.25046307692307601</v>
+      </c>
+      <c r="G19">
+        <v>0.15417948717948701</v>
+      </c>
+      <c r="H19">
+        <v>0.11512310924369699</v>
+      </c>
+      <c r="I19">
+        <v>3.1945689655172499E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.140080952380952</v>
+      </c>
+      <c r="K19">
+        <v>6.3746153846153796E-3</v>
+      </c>
+      <c r="L19">
+        <v>9.91118131868131E-2</v>
+      </c>
+      <c r="M19">
+        <v>0.143795238095238</v>
+      </c>
+      <c r="N19">
+        <v>0.160317016317016</v>
+      </c>
+      <c r="O19">
+        <v>0.159846052631578</v>
+      </c>
+      <c r="P19">
+        <v>5.0574999999999898E-2</v>
+      </c>
+      <c r="Q19">
+        <v>0.17411199999999999</v>
+      </c>
+      <c r="R19">
+        <v>4.4208144796380099E-2</v>
+      </c>
+      <c r="S19">
+        <v>4.3074999999999898E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>3.1053692201518102E-2</v>
+      </c>
+      <c r="C20">
+        <v>5.4057957393483701E-2</v>
+      </c>
+      <c r="D20">
+        <v>4.0273255813953503E-2</v>
+      </c>
+      <c r="E20">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F20">
+        <v>0.25156692307692302</v>
+      </c>
+      <c r="G20">
+        <v>0.169615384615384</v>
+      </c>
+      <c r="H20">
+        <v>0.12607857142857101</v>
+      </c>
+      <c r="I20">
+        <v>3.8570114942528801E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.140080952380952</v>
+      </c>
+      <c r="K20">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L20">
+        <v>9.6253021978021797E-2</v>
+      </c>
+      <c r="M20">
+        <v>0.13905238095238001</v>
+      </c>
+      <c r="N20">
+        <v>0.16257342657342599</v>
+      </c>
+      <c r="O20">
+        <v>0.16393848684210499</v>
+      </c>
+      <c r="P20">
+        <v>4.335E-2</v>
+      </c>
+      <c r="Q20">
+        <v>0.17271600000000001</v>
+      </c>
+      <c r="R20">
+        <v>4.1339366515837202E-2</v>
+      </c>
+      <c r="S20">
+        <v>4.55749999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3.1660041407867399E-2</v>
+      </c>
+      <c r="C21">
+        <v>5.2018796992481298E-2</v>
+      </c>
+      <c r="D21">
+        <v>4.0273255813953503E-2</v>
+      </c>
+      <c r="E21">
+        <v>8.0403846153846104E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.241118461538461</v>
+      </c>
+      <c r="G21">
+        <v>0.15282051282051201</v>
+      </c>
+      <c r="H21">
+        <v>0.1099756302521</v>
+      </c>
+      <c r="I21">
+        <v>3.3639104406130098E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.16545396825396799</v>
+      </c>
+      <c r="K21">
+        <v>1.50638461538461E-2</v>
+      </c>
+      <c r="L21">
+        <v>0.110180494505494</v>
+      </c>
+      <c r="M21">
+        <v>0.13931666666666601</v>
+      </c>
+      <c r="N21">
+        <v>0.166741258741258</v>
+      </c>
+      <c r="O21">
+        <v>0.161865131578947</v>
+      </c>
+      <c r="P21">
+        <v>4.9949999999999897E-2</v>
+      </c>
+      <c r="Q21">
+        <v>0.176926</v>
+      </c>
+      <c r="R21">
+        <v>4.9384615384615402E-2</v>
+      </c>
+      <c r="S21">
+        <v>5.4224999999999898E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
